--- a/Pricing.xlsx
+++ b/Pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Uni\Robotics\ICRS-PCB-Ruler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E2DEE0-541E-41DF-8340-1C702FF8C796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0056A13-83D3-4F5B-8056-D7B1E5A19D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EA5C42CA-81E1-4E1F-BB75-C59E9328A552}"/>
+    <workbookView xWindow="54600" yWindow="-2850" windowWidth="25800" windowHeight="21000" xr2:uid="{EA5C42CA-81E1-4E1F-BB75-C59E9328A552}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Quantity</t>
   </si>
@@ -100,10 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,26 +175,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -270,10 +251,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -447,6 +424,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E9A2-47C0-ABA8-9B2D55B2E6B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2024</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$30:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>6.2700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5033333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9635000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6073333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73346666666666671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56246666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45948</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41094999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.39782222222222224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39268000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38135000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37179999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.3707333333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36571000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82C2-409A-ABB9-E60393202A78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -516,26 +656,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -638,26 +758,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1011,6 +1111,193 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD97-4D81-8D0F-D609FADF7F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$30:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>31.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114.87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>129.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>179.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>196.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>228.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>260.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>301.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>333.65999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>365.71000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C848-47EB-898E-DC49F9FED052}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1352,563 +1639,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2504,9 +2235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2544,7 +2275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2650,7 +2381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2792,7 +2523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2800,14 +2531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5FA020-3A55-421F-A730-42B214532872}">
-  <dimension ref="B3:U25"/>
+  <dimension ref="A3:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
@@ -2816,7 +2548,10 @@
     <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45145</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>5</v>
       </c>
@@ -2858,7 +2593,7 @@
         <v>6.2580000000000009</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10</v>
       </c>
@@ -2880,7 +2615,7 @@
         <v>3.2890000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>15</v>
       </c>
@@ -2902,7 +2637,7 @@
         <v>2.5746666666666664</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>20</v>
       </c>
@@ -2927,7 +2662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>25</v>
       </c>
@@ -2949,7 +2684,7 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>30</v>
       </c>
@@ -2971,7 +2706,7 @@
         <v>1.5186666666666666</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>50</v>
       </c>
@@ -2993,7 +2728,7 @@
         <v>0.81700000000000006</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>75</v>
       </c>
@@ -3015,7 +2750,7 @@
         <v>0.66293333333333326</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>100</v>
       </c>
@@ -3037,7 +2772,7 @@
         <v>0.60960000000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>125</v>
       </c>
@@ -3059,7 +2794,7 @@
         <v>0.54168000000000005</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>150</v>
       </c>
@@ -3081,7 +2816,7 @@
         <v>0.50766666666666671</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>200</v>
       </c>
@@ -3103,7 +2838,7 @@
         <v>0.45080000000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>250</v>
       </c>
@@ -3125,7 +2860,7 @@
         <v>0.41376000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>300</v>
       </c>
@@ -3147,7 +2882,7 @@
         <v>0.39043333333333335</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>400</v>
       </c>
@@ -3169,7 +2904,7 @@
         <v>0.36862500000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>450</v>
       </c>
@@ -3191,7 +2926,7 @@
         <v>0.35724444444444442</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>500</v>
       </c>
@@ -3213,7 +2948,7 @@
         <v>0.35202</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>600</v>
       </c>
@@ -3235,7 +2970,7 @@
         <v>0.34148333333333336</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>700</v>
       </c>
@@ -3257,7 +2992,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>800</v>
       </c>
@@ -3279,7 +3014,7 @@
         <v>0.33631250000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>900</v>
       </c>
@@ -3301,7 +3036,7 @@
         <v>0.33085555555555551</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1000</v>
       </c>
@@ -3321,6 +3056,513 @@
       <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>0.32647999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30.17</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="F30" s="1">
+        <f>C30+E30</f>
+        <v>31.35</v>
+      </c>
+      <c r="G30" s="1">
+        <f>F30/B30</f>
+        <v>6.2700000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31:F51" si="2">C31+E31</f>
+        <v>33.08</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ref="G31:G51" si="3">F31/B31</f>
+        <v>3.3079999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>37.550000000000004</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5033333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>35.35</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>39.270000000000003</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9635000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8.56</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>45.72</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8288</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>38.81</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>9.41</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>48.22</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6073333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1">
+        <v>31.09</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E36" s="1">
+        <v>13.26</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>44.35</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>36.82</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="E37" s="1">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="F37" s="1">
+        <f>C37+E37</f>
+        <v>55.010000000000005</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.73346666666666671</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42.55</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="E38" s="1">
+        <v>24.28</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ref="F38:F51" si="4">C38+E38</f>
+        <v>66.83</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.66830000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1">
+        <v>48.36</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="E39" s="1">
+        <v>26.39</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="4"/>
+        <v>74.75</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="3"/>
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>150</v>
+      </c>
+      <c r="C40" s="1">
+        <v>54.01</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E40" s="1">
+        <v>30.36</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="4"/>
+        <v>84.37</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="3"/>
+        <v>0.56246666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>200</v>
+      </c>
+      <c r="C41" s="1">
+        <v>65.48</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="E41" s="1">
+        <v>34.33</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="4"/>
+        <v>99.81</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="3"/>
+        <v>0.49904999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>250</v>
+      </c>
+      <c r="C42" s="1">
+        <v>77.02</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="E42" s="1">
+        <v>37.85</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="4"/>
+        <v>114.87</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45948</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>300</v>
+      </c>
+      <c r="C43" s="1">
+        <v>88.48</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E43" s="1">
+        <v>41.42</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="4"/>
+        <v>129.9</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>400</v>
+      </c>
+      <c r="C44" s="1">
+        <v>111.41</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E44" s="1">
+        <v>52.97</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="4"/>
+        <v>164.38</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41094999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>450</v>
+      </c>
+      <c r="C45" s="1">
+        <v>122.87</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7.41</v>
+      </c>
+      <c r="E45" s="1">
+        <v>56.15</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="4"/>
+        <v>179.02</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39782222222222224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>500</v>
+      </c>
+      <c r="C46" s="1">
+        <v>134.33000000000001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E46" s="1">
+        <v>62.01</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="4"/>
+        <v>196.34</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39268000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>600</v>
+      </c>
+      <c r="C47" s="1">
+        <v>157.33000000000001</v>
+      </c>
+      <c r="D47" s="1">
+        <v>9.84</v>
+      </c>
+      <c r="E47" s="1">
+        <v>71.48</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="4"/>
+        <v>228.81</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38135000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>700</v>
+      </c>
+      <c r="C48" s="1">
+        <v>180.26</v>
+      </c>
+      <c r="D48" s="1">
+        <v>11.47</v>
+      </c>
+      <c r="E48" s="1">
+        <v>80</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="4"/>
+        <v>260.26</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="3"/>
+        <v>0.37179999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>800</v>
+      </c>
+      <c r="C49" s="1">
+        <v>203.26</v>
+      </c>
+      <c r="D49" s="1">
+        <v>13.08</v>
+      </c>
+      <c r="E49" s="1">
+        <v>98.34</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="4"/>
+        <v>301.60000000000002</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="3"/>
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>900</v>
+      </c>
+      <c r="C50" s="1">
+        <v>226.19</v>
+      </c>
+      <c r="D50" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="E50" s="1">
+        <v>107.47</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="4"/>
+        <v>333.65999999999997</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3707333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="1">
+        <v>249.11</v>
+      </c>
+      <c r="D51" s="1">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E51" s="1">
+        <v>116.6</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="4"/>
+        <v>365.71000000000004</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="3"/>
+        <v>0.36571000000000004</v>
       </c>
     </row>
   </sheetData>
